--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna1-Epha4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna1-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.27945933767</v>
+        <v>23.82411166666667</v>
       </c>
       <c r="H2">
-        <v>23.27945933767</v>
+        <v>71.472335</v>
       </c>
       <c r="I2">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="J2">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.14773152424498</v>
+        <v>7.189414999999999</v>
       </c>
       <c r="N2">
-        <v>7.14773152424498</v>
+        <v>21.568245</v>
       </c>
       <c r="O2">
-        <v>0.3432077944869921</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="P2">
-        <v>0.3432077944869921</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="Q2">
-        <v>166.395325375243</v>
+        <v>171.2814257780083</v>
       </c>
       <c r="R2">
-        <v>166.395325375243</v>
+        <v>1541.532832002075</v>
       </c>
       <c r="S2">
-        <v>0.3030092609316307</v>
+        <v>0.2931974053567917</v>
       </c>
       <c r="T2">
-        <v>0.3030092609316307</v>
+        <v>0.2931974053567917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.27945933767</v>
+        <v>23.82411166666667</v>
       </c>
       <c r="H3">
-        <v>23.27945933767</v>
+        <v>71.472335</v>
       </c>
       <c r="I3">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="J3">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.8321182519589</v>
+        <v>12.90571233333333</v>
       </c>
       <c r="N3">
-        <v>12.8321182519589</v>
+        <v>38.717137</v>
       </c>
       <c r="O3">
-        <v>0.6161511507409755</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="P3">
-        <v>0.6161511507409755</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="Q3">
-        <v>298.7247750626503</v>
+        <v>307.4671317672106</v>
       </c>
       <c r="R3">
-        <v>298.7247750626503</v>
+        <v>2767.204185904895</v>
       </c>
       <c r="S3">
-        <v>0.5439838715996085</v>
+        <v>0.5263183959215707</v>
       </c>
       <c r="T3">
-        <v>0.5439838715996085</v>
+        <v>0.5263183959215707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.27945933767</v>
+        <v>23.82411166666667</v>
       </c>
       <c r="H4">
-        <v>23.27945933767</v>
+        <v>71.472335</v>
       </c>
       <c r="I4">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="J4">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.846400789955351</v>
+        <v>0.02123933333333333</v>
       </c>
       <c r="N4">
-        <v>0.846400789955351</v>
+        <v>0.063718</v>
       </c>
       <c r="O4">
-        <v>0.04064105477203254</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="P4">
-        <v>0.04064105477203254</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="Q4">
-        <v>19.70375277313736</v>
+        <v>0.5060082490588889</v>
       </c>
       <c r="R4">
-        <v>19.70375277313736</v>
+        <v>4.55407424153</v>
       </c>
       <c r="S4">
-        <v>0.03588093326482489</v>
+        <v>0.0008661786007403036</v>
       </c>
       <c r="T4">
-        <v>0.03588093326482489</v>
+        <v>0.0008661786007403036</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.38782960313492</v>
+        <v>23.82411166666667</v>
       </c>
       <c r="H5">
-        <v>2.38782960313492</v>
+        <v>71.472335</v>
       </c>
       <c r="I5">
-        <v>0.09055849620771003</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="J5">
-        <v>0.09055849620771003</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.14773152424498</v>
+        <v>1.490109666666666</v>
       </c>
       <c r="N5">
-        <v>7.14773152424498</v>
+        <v>4.470329</v>
       </c>
       <c r="O5">
-        <v>0.3432077944869921</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="P5">
-        <v>0.3432077944869921</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="Q5">
-        <v>17.06756492885285</v>
+        <v>35.50053909424611</v>
       </c>
       <c r="R5">
-        <v>17.06756492885285</v>
+        <v>319.504851848215</v>
       </c>
       <c r="S5">
-        <v>0.0310803817555068</v>
+        <v>0.0607693794229072</v>
       </c>
       <c r="T5">
-        <v>0.0310803817555068</v>
+        <v>0.0607693794229072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.38782960313492</v>
+        <v>2.471212</v>
       </c>
       <c r="H6">
-        <v>2.38782960313492</v>
+        <v>7.413636</v>
       </c>
       <c r="I6">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="J6">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.8321182519589</v>
+        <v>7.189414999999999</v>
       </c>
       <c r="N6">
-        <v>12.8321182519589</v>
+        <v>21.568245</v>
       </c>
       <c r="O6">
-        <v>0.6161511507409755</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="P6">
-        <v>0.6161511507409755</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="Q6">
-        <v>30.64091183295539</v>
+        <v>17.76656862098</v>
       </c>
       <c r="R6">
-        <v>30.64091183295539</v>
+        <v>159.89911758882</v>
       </c>
       <c r="S6">
-        <v>0.0557977216477528</v>
+        <v>0.03041259026250791</v>
       </c>
       <c r="T6">
-        <v>0.0557977216477528</v>
+        <v>0.03041259026250791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.38782960313492</v>
+        <v>2.471212</v>
       </c>
       <c r="H7">
-        <v>2.38782960313492</v>
+        <v>7.413636</v>
       </c>
       <c r="I7">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="J7">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.846400789955351</v>
+        <v>12.90571233333333</v>
       </c>
       <c r="N7">
-        <v>0.846400789955351</v>
+        <v>38.717137</v>
       </c>
       <c r="O7">
-        <v>0.04064105477203254</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="P7">
-        <v>0.04064105477203254</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="Q7">
-        <v>2.021060862372169</v>
+        <v>31.89275118668133</v>
       </c>
       <c r="R7">
-        <v>2.021060862372169</v>
+        <v>287.034760680132</v>
       </c>
       <c r="S7">
-        <v>0.003680392804450445</v>
+        <v>0.05459361314369272</v>
       </c>
       <c r="T7">
-        <v>0.003680392804450445</v>
+        <v>0.05459361314369272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7005252691181399</v>
+        <v>2.471212</v>
       </c>
       <c r="H8">
-        <v>0.7005252691181399</v>
+        <v>7.413636</v>
       </c>
       <c r="I8">
-        <v>0.02656743799622608</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="J8">
-        <v>0.02656743799622608</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>7.14773152424498</v>
+        <v>0.02123933333333333</v>
       </c>
       <c r="N8">
-        <v>7.14773152424498</v>
+        <v>0.063718</v>
       </c>
       <c r="O8">
-        <v>0.3432077944869921</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="P8">
-        <v>0.3432077944869921</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="Q8">
-        <v>5.007166549605928</v>
+        <v>0.05248689540533333</v>
       </c>
       <c r="R8">
-        <v>5.007166549605928</v>
+        <v>0.472382058648</v>
       </c>
       <c r="S8">
-        <v>0.009118151799854668</v>
+        <v>8.984641199812406E-05</v>
       </c>
       <c r="T8">
-        <v>0.009118151799854668</v>
+        <v>8.984641199812406E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7005252691181399</v>
+        <v>2.471212</v>
       </c>
       <c r="H9">
-        <v>0.7005252691181399</v>
+        <v>7.413636</v>
       </c>
       <c r="I9">
-        <v>0.02656743799622608</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="J9">
-        <v>0.02656743799622608</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.8321182519589</v>
+        <v>1.490109666666666</v>
       </c>
       <c r="N9">
-        <v>12.8321182519589</v>
+        <v>4.470329</v>
       </c>
       <c r="O9">
-        <v>0.6161511507409755</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="P9">
-        <v>0.6161511507409755</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="Q9">
-        <v>8.989223091809304</v>
+        <v>3.682376889582666</v>
       </c>
       <c r="R9">
-        <v>8.989223091809304</v>
+        <v>33.141392006244</v>
       </c>
       <c r="S9">
-        <v>0.01636955749361422</v>
+        <v>0.00630344676702285</v>
       </c>
       <c r="T9">
-        <v>0.01636955749361422</v>
+        <v>0.00630344676702285</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02836866666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.085106</v>
+      </c>
+      <c r="I10">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="J10">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.189414999999999</v>
+      </c>
+      <c r="N10">
+        <v>21.568245</v>
+      </c>
+      <c r="O10">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="P10">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="Q10">
+        <v>0.2039541176633333</v>
+      </c>
+      <c r="R10">
+        <v>1.83558705897</v>
+      </c>
+      <c r="S10">
+        <v>0.0003491261112470316</v>
+      </c>
+      <c r="T10">
+        <v>0.0003491261112470316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02836866666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.085106</v>
+      </c>
+      <c r="I11">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="J11">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.90571233333333</v>
+      </c>
+      <c r="N11">
+        <v>38.717137</v>
+      </c>
+      <c r="O11">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="P11">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="Q11">
+        <v>0.3661178512802222</v>
+      </c>
+      <c r="R11">
+        <v>3.295060661522</v>
+      </c>
+      <c r="S11">
+        <v>0.0006267159650415954</v>
+      </c>
+      <c r="T11">
+        <v>0.0006267159650415954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02836866666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.085106</v>
+      </c>
+      <c r="I12">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="J12">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02123933333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.063718</v>
+      </c>
+      <c r="O12">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="P12">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="Q12">
+        <v>0.0006025315675555555</v>
+      </c>
+      <c r="R12">
+        <v>0.005422784108</v>
+      </c>
+      <c r="S12">
+        <v>1.031406011775106E-06</v>
+      </c>
+      <c r="T12">
+        <v>1.031406011775106E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02836866666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.085106</v>
+      </c>
+      <c r="I13">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="J13">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.490109666666666</v>
+      </c>
+      <c r="N13">
+        <v>4.470329</v>
+      </c>
+      <c r="O13">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="P13">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="Q13">
+        <v>0.04227242443044444</v>
+      </c>
+      <c r="R13">
+        <v>0.380451819874</v>
+      </c>
+      <c r="S13">
+        <v>7.236140816115691E-05</v>
+      </c>
+      <c r="T13">
+        <v>7.236140816115691E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H14">
+        <v>2.141361</v>
+      </c>
+      <c r="I14">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J14">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.189414999999999</v>
+      </c>
+      <c r="N14">
+        <v>21.568245</v>
+      </c>
+      <c r="O14">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="P14">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="Q14">
+        <v>5.131710964604999</v>
+      </c>
+      <c r="R14">
+        <v>46.18539868144499</v>
+      </c>
+      <c r="S14">
+        <v>0.00878439873459045</v>
+      </c>
+      <c r="T14">
+        <v>0.00878439873459045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H15">
+        <v>2.141361</v>
+      </c>
+      <c r="I15">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J15">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.90571233333333</v>
+      </c>
+      <c r="N15">
+        <v>38.717137</v>
+      </c>
+      <c r="O15">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="P15">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="Q15">
+        <v>9.211929689272999</v>
+      </c>
+      <c r="R15">
+        <v>82.907367203457</v>
+      </c>
+      <c r="S15">
+        <v>0.01576886618590271</v>
+      </c>
+      <c r="T15">
+        <v>0.01576886618590271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.7005252691181399</v>
-      </c>
-      <c r="H10">
-        <v>0.7005252691181399</v>
-      </c>
-      <c r="I10">
-        <v>0.02656743799622608</v>
-      </c>
-      <c r="J10">
-        <v>0.02656743799622608</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.846400789955351</v>
-      </c>
-      <c r="N10">
-        <v>0.846400789955351</v>
-      </c>
-      <c r="O10">
-        <v>0.04064105477203254</v>
-      </c>
-      <c r="P10">
-        <v>0.04064105477203254</v>
-      </c>
-      <c r="Q10">
-        <v>0.5929251411652785</v>
-      </c>
-      <c r="R10">
-        <v>0.5929251411652785</v>
-      </c>
-      <c r="S10">
-        <v>0.001079728702757203</v>
-      </c>
-      <c r="T10">
-        <v>0.001079728702757203</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H16">
+        <v>2.141361</v>
+      </c>
+      <c r="I16">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J16">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02123933333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.063718</v>
+      </c>
+      <c r="O16">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="P16">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="Q16">
+        <v>0.015160360022</v>
+      </c>
+      <c r="R16">
+        <v>0.136443240198</v>
+      </c>
+      <c r="S16">
+        <v>2.595131493409103E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.595131493409103E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.141361</v>
+      </c>
+      <c r="I17">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J17">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.490109666666666</v>
+      </c>
+      <c r="N17">
+        <v>4.470329</v>
+      </c>
+      <c r="O17">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="P17">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="Q17">
+        <v>1.063620908641</v>
+      </c>
+      <c r="R17">
+        <v>9.572588177768999</v>
+      </c>
+      <c r="S17">
+        <v>0.001820692986879692</v>
+      </c>
+      <c r="T17">
+        <v>0.001820692986879692</v>
       </c>
     </row>
   </sheetData>
